--- a/00_はじめてのエクセル.xlsx
+++ b/00_はじめてのエクセル.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F35AFB32-C827-4A05-AC45-B1850CC8B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A50CD5B-95E1-42B9-BC58-A1383C5495E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="演算子" sheetId="2" r:id="rId1"/>
+    <sheet name="はじめてのエクセル" sheetId="3" r:id="rId1"/>
+    <sheet name="演算子" sheetId="2" r:id="rId2"/>
+    <sheet name="はじめてのエクセル (2)" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
   <si>
     <t>Java を学習する中でふとした時に見返すことができるように、演算子の結合規則と優先順位についてまとめてみました。</t>
   </si>
@@ -270,12 +283,336 @@
     <t>Last updated at 2021-08-10</t>
     <phoneticPr fontId="23"/>
   </si>
+  <si>
+    <t>会議予定</t>
+    <rPh sb="0" eb="4">
+      <t>カイギヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←文字列は左揃え</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒダリゾロ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←数値は右揃え</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミギゾロ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>=10+20</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←文字列扱いしたい場合は先頭に'（一重引用符）をつける</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>イチジュウインヨウフ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>※ セルを変数と見立てて、数式を組む！</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←実行結果が表示される</t>
+    <rPh sb="1" eb="5">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>※ 数式バーに入力状態が表示される</t>
+    <rPh sb="2" eb="4">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ニュウリョクジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>練習</t>
+    <rPh sb="0" eb="2">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>↓ [Ctrl] + [D]</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>→ [Ctrl] + [R]</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業1課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業2課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業3課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業4課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>商品A</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品D</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>仕入数</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>売上数</t>
+    <rPh sb="0" eb="3">
+      <t>ウリアゲスウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>福岡出張</t>
+    <rPh sb="0" eb="4">
+      <t>フクオカシュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>●平日シフト</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>●休日シフト</t>
+    <rPh sb="1" eb="3">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +814,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -909,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +1277,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -941,6 +1290,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,11 +1654,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD4BCF5-B8D9-47D5-A98A-8A82AA5ECBBC}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>A5+A6</f>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>35</v>
+      </c>
+      <c r="L11" s="13">
+        <v>45017</v>
+      </c>
+      <c r="M11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J14" si="0">H12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="13">
+        <v>45018</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="13">
+        <v>45019</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1332,12 +2018,12 @@
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
@@ -1365,10 +2051,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1379,8 +2065,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1389,8 +2075,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1399,8 +2085,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1409,8 +2095,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1419,10 +2105,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1433,8 +2119,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1443,8 +2129,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1453,8 +2139,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1463,8 +2149,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1473,8 +2159,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1483,10 +2169,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1497,8 +2183,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1507,10 +2193,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1521,8 +2207,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1531,8 +2217,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1541,10 +2227,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="8">
+      <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1555,8 +2241,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
@@ -1565,32 +2251,32 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="8">
+      <c r="A28" s="10">
         <v>6</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="8">
+      <c r="A30" s="10">
         <v>7</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1601,8 +2287,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="6" t="s">
         <v>47</v>
       </c>
@@ -1611,8 +2297,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="6" t="s">
         <v>48</v>
       </c>
@@ -1621,26 +2307,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="8">
+      <c r="A33" s="10">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
@@ -1727,10 +2413,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="8">
+      <c r="A41" s="10">
         <v>15</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -1741,8 +2427,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="6" t="s">
         <v>68</v>
       </c>
@@ -1751,8 +2437,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="6" t="s">
         <v>69</v>
       </c>
@@ -1772,12 +2458,12 @@
       <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
@@ -1811,4 +2497,329 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E27E76-999D-44D7-98DD-91DBA56B948E}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>A5+A6</f>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>35</v>
+      </c>
+      <c r="L11" s="13">
+        <v>45017</v>
+      </c>
+      <c r="M11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J14" si="0">H12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="13">
+        <v>45018</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="13">
+        <v>45019</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>